--- a/Students/Resources/Report3.xlsx
+++ b/Students/Resources/Report3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learn\C#\EPAM\EPAM_Task6\EPAM_Task6\Students\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{906DD874-4ADF-4155-BA17-4A4287AC1351}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F44FB4FC-5E75-4080-9148-67BD5A9A582B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8304" xr2:uid="{5979AE21-FFE9-4464-8A6B-32F61D89F439}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8304" xr2:uid="{D64F98FF-2D90-4B2A-B5AA-EF491F76B3C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE582760-2966-4F13-A3CB-4307EAF36488}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA3D860-EB9E-4AF2-84DF-653759FC06DD}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Students/Resources/Report3.xlsx
+++ b/Students/Resources/Report3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learn\C#\EPAM\EPAM_Task6\EPAM_Task6\Students\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F44FB4FC-5E75-4080-9148-67BD5A9A582B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF54314D-C36E-4622-AE10-BF25D474CF42}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8304" xr2:uid="{D64F98FF-2D90-4B2A-B5AA-EF491F76B3C6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8304" xr2:uid="{5CD9FD94-829E-4552-8AB3-935FCE25EED5}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA3D860-EB9E-4AF2-84DF-653759FC06DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402C5CBD-620A-4712-81C0-99D70E152FAC}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Students/Resources/Report3.xlsx
+++ b/Students/Resources/Report3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learn\C#\EPAM\EPAM_Task6\EPAM_Task6\Students\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF54314D-C36E-4622-AE10-BF25D474CF42}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53F6B9D4-7C78-4272-9BC0-F3BCAE39810C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8304" xr2:uid="{5CD9FD94-829E-4552-8AB3-935FCE25EED5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8304" xr2:uid="{6AF7BEE4-48FE-4D41-95CF-B30F4CD0C34C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+  <si>
+    <t>Session</t>
+  </si>
   <si>
     <t>Group</t>
   </si>
@@ -33,25 +36,37 @@
     <t>Student</t>
   </si>
   <si>
+    <t>EducationSubject</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t>IP-32</t>
   </si>
   <si>
+    <t>Shyshkavets Pavel Sergeevich</t>
+  </si>
+  <si>
+    <t>OOP</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
     <t>Reita Match Sergeevna</t>
   </si>
   <si>
-    <t>IP-21</t>
-  </si>
-  <si>
-    <t>Artem Lukavtsov Gennadevich</t>
-  </si>
-  <si>
-    <t>Borisenko Ivan Sergeevich</t>
-  </si>
-  <si>
-    <t>IP-31</t>
-  </si>
-  <si>
-    <t>Palatkin Daniil Aleksandrovich</t>
+    <t>Not Passes</t>
   </si>
 </sst>
 </file>
@@ -403,54 +418,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402C5CBD-620A-4712-81C0-99D70E152FAC}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7041C47-4BF8-4E67-B9FB-84089458ACA6}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F5">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>